--- a/extract/permits-by-county-2024.xlsx
+++ b/extract/permits-by-county-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://djei.cloud.gov.ie/apps/eDocs/S/ENT218/Files/ENT218-001-2023/Web Stats 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naughtm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1E2E97-B2BF-417F-BA89-04B5A87F8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53E1F69-ADCF-4F1F-A9D0-1DA44599D9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{4E125C3D-9CC4-47CF-857A-3B69DD6CFCF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B38B6A10-30AA-412E-81F3-D59DE0CC552E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,14 +134,25 @@
     <t>Wicklow</t>
   </si>
   <si>
-    <t>No County Info</t>
+    <t xml:space="preserve">No County Entered </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +171,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -209,34 +212,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,452 +569,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDA1569-C6F7-40BB-99A8-16854A0F69FC}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BF76A-8024-4DAB-A9CC-E28CB163DD78}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>19303</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1099</v>
+      </c>
+      <c r="D2" s="4">
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>16280</v>
-      </c>
-      <c r="C3" s="6">
-        <v>938</v>
-      </c>
       <c r="D3" s="6">
-        <v>427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>357</v>
+      </c>
+      <c r="C5" s="6">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>266</v>
+      </c>
+      <c r="C6" s="6">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1555</v>
+      </c>
+      <c r="C7" s="6">
+        <v>62</v>
+      </c>
+      <c r="D7" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>174</v>
+      </c>
+      <c r="C8" s="6">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9241</v>
+      </c>
+      <c r="C9" s="6">
+        <v>369</v>
+      </c>
+      <c r="D9" s="6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>693</v>
+      </c>
+      <c r="C11" s="6">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>260</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1296</v>
+      </c>
+      <c r="C13" s="6">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <v>215</v>
+      </c>
+      <c r="C14" s="6">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6">
+        <v>929</v>
+      </c>
+      <c r="C17" s="6">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <v>327</v>
+      </c>
+      <c r="C19" s="6">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6">
+        <v>241</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6">
+        <v>803</v>
+      </c>
+      <c r="C21" s="6">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="6">
+        <v>210</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6">
+        <v>182</v>
+      </c>
+      <c r="C23" s="6">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B24" s="6">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6">
+        <v>119</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="6">
+        <v>373</v>
+      </c>
+      <c r="C26" s="6">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6">
+        <v>740</v>
+      </c>
+      <c r="C27" s="6">
+        <v>282</v>
+      </c>
+      <c r="D27" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6">
+        <v>255</v>
+      </c>
+      <c r="C28" s="6">
+        <v>18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6">
+        <v>453</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6">
+        <v>175</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>112</v>
-      </c>
-      <c r="C5" s="8">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8">
-        <v>329</v>
-      </c>
-      <c r="C6" s="8">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="8">
-        <v>228</v>
-      </c>
-      <c r="C7" s="8">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1339</v>
-      </c>
-      <c r="C8" s="8">
-        <v>55</v>
-      </c>
-      <c r="D8" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
-        <v>149</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
-        <v>7778</v>
-      </c>
-      <c r="C10" s="8">
-        <v>307</v>
-      </c>
-      <c r="D10" s="8">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
-        <v>581</v>
-      </c>
-      <c r="C12" s="8">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
-        <v>215</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1051</v>
-      </c>
-      <c r="C14" s="8">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8">
-        <v>176</v>
-      </c>
-      <c r="C15" s="8">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>85</v>
-      </c>
-      <c r="C16" s="8">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8">
-        <v>32</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8">
-        <v>785</v>
-      </c>
-      <c r="C18" s="8">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8">
-        <v>35</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8">
-        <v>264</v>
-      </c>
-      <c r="C20" s="8">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8">
-        <v>191</v>
-      </c>
-      <c r="C21" s="8">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8">
-        <v>697</v>
-      </c>
-      <c r="C22" s="8">
-        <v>24</v>
-      </c>
-      <c r="D22" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8">
-        <v>195</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8">
-        <v>148</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8">
-        <v>71</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8">
-        <v>89</v>
-      </c>
-      <c r="C26" s="8">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8">
-        <v>303</v>
-      </c>
-      <c r="C27" s="8">
-        <v>15</v>
-      </c>
-      <c r="D27" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8">
-        <v>666</v>
-      </c>
-      <c r="C28" s="8">
-        <v>260</v>
-      </c>
-      <c r="D28" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8">
-        <v>203</v>
-      </c>
-      <c r="C29" s="8">
-        <v>15</v>
-      </c>
-      <c r="D29" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="8">
-        <v>386</v>
-      </c>
-      <c r="C30" s="8">
-        <v>39</v>
-      </c>
-      <c r="D30" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="8">
-        <v>147</v>
-      </c>
-      <c r="C31" s="8">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="73" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3888e2271718c75706e7830fa90915bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24d65fe50479ab95a2d5ce6889527e7" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="eDocument" ma:contentTypeID="0x0101000BC94875665D404BB1351B53C41FD2C000E5CBA74D75A77049B177D97877D56E03" ma:contentTypeVersion="109" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="57ce4dbe6534106c1e25e2f9bfddcf27">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f94102a1-1d6c-4502-ac27-91905b9321dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d4496fe659c0b9ca30f08c915fd27f6" ns2:_="">
     <xsd:import namespace="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1220,24 +1223,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <m02c691f3efa402dab5cbaa8c240a9e7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistics</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9ba6f678-e647-4dac-946a-fcabffeb8025</TermId>
+        </TermInfo>
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">#Reports</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">139e42fd-3e09-4439-bba7-8aeac7f033ff</TermId>
+        </TermInfo>
+      </Terms>
     </m02c691f3efa402dab5cbaa8c240a9e7>
     <TaxCatchAll xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
+      <Value>8</Value>
       <Value>5</Value>
+      <Value>10</Value>
       <Value>1</Value>
+      <Value>7</Value>
     </TaxCatchAll>
     <eDocs_FileStatus xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">Live</eDocs_FileStatus>
     <h1f8bb4843d6459a8b809123185593c7 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
@@ -1253,9 +1259,14 @@
     </fbaa881fc4ae443f9fdafbdd527793df>
     <_vti_ItemDeclaredRecord xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
     <nb1b8a72855341e18dd75ce464e281f2 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">720401db-42e9-4f5b-a7dd-0e2a6af555be</TermId>
+        </TermInfo>
+      </Terms>
     </nb1b8a72855341e18dd75ce464e281f2>
-    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd" xsi:nil="true"/>
+    <eDocs_eFileName xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">ENT218-001-2023</eDocs_eFileName>
     <mbbd3fafa5ab4e5eb8a6a5e099cef439 xmlns="f94102a1-1d6c-4502-ac27-91905b9321dd">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
         <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
@@ -1269,7 +1280,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0D76490-A1AC-4CFB-A602-354421955EF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B184BE-A4E3-4DB2-A687-D7424ECBFBAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194B639A-C730-45CD-B05E-FE231C92EDAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1286,24 +1305,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EDBC56-C5A1-4B48-ACDE-AF092F4D9E18}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCFA14A-3A03-4EF7-85EA-447DC0669B36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FBB12BA-A494-4C09-B387-A15883DDB4EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f94102a1-1d6c-4502-ac27-91905b9321dd"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
